--- a/user-data/fragile-states/fragile-states.xlsx
+++ b/user-data/fragile-states/fragile-states.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
     <sheet name="fragile-states" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
@@ -1580,7 +1580,7 @@
     <t>Very fragile countries are those that have been considered 'very high warning' for each of the last 10 years and have been considered 'very high alert at least twice</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following tabs have been included for reference purposes:</t>

--- a/user-data/fragile-states/fragile-states.xlsx
+++ b/user-data/fragile-states/fragile-states.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
   <si>
     <t>id</t>
   </si>
@@ -1562,12 +1562,15 @@
     <t>Units of measure: NA</t>
   </si>
   <si>
-    <t>Source: Development Initiatives calculations based on the &lt;a href="http://library.fundforpeace.org/fsi"&gt;Fund For Peace Fragile states index&lt;/a&gt;</t>
+    <t>Source: Development Initiatives calculations based on the Fund For Peace Fragile states index</t>
   </si>
   <si>
     <t>Source: DI</t>
   </si>
   <si>
+    <t>Source-link: http://library.fundforpeace.org/fsi</t>
+  </si>
+  <si>
     <t>Source-link: NA</t>
   </si>
   <si>
@@ -1577,7 +1580,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Very fragile countries are those that have been considered 'very high warning' for each of the last 10 years and have been considered 'very high alert at least twice</t>
+    <t>Very fragile countries are those that have been considered 'very high warning' for each of the last 10 years and have been considered 'very high alert at least twice.  Long-term fragile states are those which have been considered 'very high warning' for all of the last 10 years. Fragile countries are those considered 'high warning' or above in 2014 . Improving fragility are those that have been considered fragile in at least 3 of the last 10 years but are no longer fragile.</t>
   </si>
   <si>
     <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
@@ -1592,7 +1595,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1972,27 +1978,27 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
@@ -2000,62 +2006,67 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/fragile-states/fragile-states.xlsx
+++ b/user-data/fragile-states/fragile-states.xlsx
@@ -29,16 +29,16 @@
     <t>value</t>
   </si>
   <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
     <t>AX</t>
   </si>
   <si>
-    <t>Ã…land Islands</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
+    <t>Aland Islands</t>
   </si>
   <si>
     <t>AL</t>
@@ -86,7 +86,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -200,7 +200,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -251,106 +251,106 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CX</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Cocos (Keeling) Islands</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -368,7 +368,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -608,7 +608,7 @@
     <t>HM</t>
   </si>
   <si>
-    <t>Heard Island and McDonald Islands</t>
+    <t>Heard Island &amp; McDonald Islands</t>
   </si>
   <si>
     <t>VA</t>
@@ -1112,7 +1112,7 @@
     <t>RE</t>
   </si>
   <si>
-    <t>RÃ©union</t>
+    <t>Reunion</t>
   </si>
   <si>
     <t>RO</t>
@@ -1136,13 +1136,13 @@
     <t>BL</t>
   </si>
   <si>
-    <t>Saint BarthÃ©lemy</t>
+    <t>Saint Barthelemy</t>
   </si>
   <si>
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -1166,13 +1166,13 @@
     <t>PM</t>
   </si>
   <si>
-    <t>Saint Pierre and Miquelon</t>
+    <t>Saint Pierre &amp; Miquelon</t>
   </si>
   <si>
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1190,7 +1190,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1268,7 +1268,7 @@
     <t>GS</t>
   </si>
   <si>
-    <t>South Georgia and the South Sandwich Islands</t>
+    <t>South Georgia &amp; the South Sandwich Islands</t>
   </si>
   <si>
     <t>KR</t>
@@ -1310,7 +1310,7 @@
     <t>SJ</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
+    <t>Svalbard &amp; Jan Mayen</t>
   </si>
   <si>
     <t>SZ</t>
@@ -1388,7 +1388,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1412,7 +1412,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1433,18 +1433,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UM</t>
   </si>
   <si>
@@ -1502,7 +1502,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>EH</t>
@@ -1604,7 +1604,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2107,9 @@
       <c r="C2" t="n">
         <v>2014</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2119,9 +2121,7 @@
       <c r="C3" t="n">
         <v>2014</v>
       </c>
-      <c r="D3" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2614,7 +2614,7 @@
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="40">
@@ -2628,7 +2628,7 @@
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="41">
@@ -2642,7 +2642,7 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="42">
@@ -2670,7 +2670,7 @@
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="44">
@@ -2684,7 +2684,7 @@
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="45">
@@ -2698,7 +2698,7 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="46">
@@ -2712,7 +2712,7 @@
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="47">
@@ -2739,9 +2739,7 @@
       <c r="C48" t="n">
         <v>2014</v>
       </c>
-      <c r="D48" t="n">
-        <v> 1</v>
-      </c>
+      <c r="D48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -2765,7 +2763,9 @@
       <c r="C50" t="n">
         <v>2014</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -2778,7 +2778,7 @@
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="52">
@@ -2805,9 +2805,7 @@
       <c r="C53" t="n">
         <v>2014</v>
       </c>
-      <c r="D53" t="n">
-        <v> 3</v>
-      </c>
+      <c r="D53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -2819,7 +2817,9 @@
       <c r="C54" t="n">
         <v>2014</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="n">
+        <v> 1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2832,7 +2832,7 @@
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="56">
@@ -5557,7 +5557,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -5566,9 +5568,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
-        <v> 4</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -5953,7 +5953,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="40">
@@ -5964,7 +5964,7 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v> 3</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="41">
@@ -5975,7 +5975,7 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="42">
@@ -5997,7 +5997,7 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="44">
@@ -6008,7 +6008,7 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="45">
@@ -6019,7 +6019,7 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v> 1</v>
+        <v> 5</v>
       </c>
     </row>
     <row r="46">
@@ -6030,7 +6030,7 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v> 5</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="47">
@@ -6051,9 +6051,7 @@
       <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="C48" t="n">
-        <v> 1</v>
-      </c>
+      <c r="C48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -6071,7 +6069,9 @@
       <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -6081,7 +6081,7 @@
         <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v> 4</v>
+        <v> 3</v>
       </c>
     </row>
     <row r="52">
@@ -6102,9 +6102,7 @@
       <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="C53" t="n">
-        <v> 3</v>
-      </c>
+      <c r="C53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -6113,7 +6111,9 @@
       <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="n">
+        <v> 1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -6123,7 +6123,7 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="56">

--- a/user-data/fragile-states/fragile-states.xlsx
+++ b/user-data/fragile-states/fragile-states.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1598,19 +1598,10 @@
     <t xml:space="preserve">Description: Fragile states categories.</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Source: Development Initiatives based on Fund for Peace Fragile States Index.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: DI</t>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -1996,25 +1987,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>529</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-    </row>
-    <row r="9">
-      <c r="A9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2022,74 +2013,53 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11"/>
+      <c r="A11" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/fragile-states/fragile-states.xlsx
+++ b/user-data/fragile-states/fragile-states.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="543">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1598,10 +1598,19 @@
     <t xml:space="preserve">Description: Fragile states categories.</t>
   </si>
   <si>
+    <t xml:space="preserve">Description: NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
+    <t xml:space="preserve">Units of measure: NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source: Development Initiatives based on Fund for Peace Fragile States Index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: DI</t>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -1987,25 +1996,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>530</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>531</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2013,53 +2022,74 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>533</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>531</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/fragile-states/fragile-states.xlsx
+++ b/user-data/fragile-states/fragile-states.xlsx
@@ -1543,7 +1543,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 54</t>
+    <t xml:space="preserve">Source: 55</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 5</t>

--- a/user-data/fragile-states/fragile-states.xlsx
+++ b/user-data/fragile-states/fragile-states.xlsx
@@ -1543,7 +1543,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 55</t>
+    <t xml:space="preserve">Source: 54</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 5</t>
